--- a/data/trans_orig/P14A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C7BA68-2B7D-47DB-9BE6-11BDD18F2E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55AB785E-5762-49A3-B2C0-3F14B4F5D511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA5FAB4A-1D1C-4EEC-9245-409F9D654D0C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{147D054D-914E-437C-AC0C-E8C96E08C4E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="190">
   <si>
     <t>Población que recibe medicación o terapia por cáncer en 2012 (Tasa respuesta: 1,54%)</t>
   </si>
@@ -102,49 +102,49 @@
     <t>45,09%</t>
   </si>
   <si>
-    <t>84,39%</t>
+    <t>84,4%</t>
   </si>
   <si>
     <t>43,59%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
   </si>
   <si>
     <t>44,09%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
   </si>
   <si>
     <t>54,91%</t>
   </si>
   <si>
-    <t>15,61%</t>
+    <t>15,6%</t>
   </si>
   <si>
     <t>56,41%</t>
   </si>
   <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -153,43 +153,49 @@
     <t>61,14%</t>
   </si>
   <si>
+    <t>19,97%</t>
+  </si>
+  <si>
     <t>53,51%</t>
   </si>
   <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>55,11%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
   </si>
   <si>
     <t>38,86%</t>
   </si>
   <si>
+    <t>80,03%</t>
+  </si>
+  <si>
     <t>46,49%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
   </si>
   <si>
     <t>44,89%</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -198,16 +204,16 @@
     <t>59,08%</t>
   </si>
   <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
   </si>
   <si>
     <t>58,42%</t>
   </si>
   <si>
-    <t>36,89%</t>
+    <t>36,81%</t>
   </si>
   <si>
     <t>79,47%</t>
@@ -216,19 +222,19 @@
     <t>58,6%</t>
   </si>
   <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
   </si>
   <si>
     <t>40,92%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>41,58%</t>
@@ -237,16 +243,16 @@
     <t>20,53%</t>
   </si>
   <si>
-    <t>63,11%</t>
+    <t>63,19%</t>
   </si>
   <si>
     <t>41,4%</t>
   </si>
   <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -255,109 +261,109 @@
     <t>78,2%</t>
   </si>
   <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>52,82%</t>
   </si>
   <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>64,59%</t>
   </si>
   <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
   </si>
   <si>
     <t>47,18%</t>
   </si>
   <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
   </si>
   <si>
     <t>35,41%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
   </si>
   <si>
     <t>65,0%</t>
   </si>
   <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
   </si>
   <si>
     <t>35,0%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -378,130 +384,130 @@
     <t>62,79%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>56,8%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>37,21%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
   </si>
   <si>
     <t>43,2%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>46,91%</t>
+    <t>47,82%</t>
   </si>
   <si>
     <t>80,26%</t>
   </si>
   <si>
-    <t>47,17%</t>
+    <t>48,72%</t>
   </si>
   <si>
     <t>81,34%</t>
   </si>
   <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>53,09%</t>
+    <t>52,18%</t>
   </si>
   <si>
     <t>19,74%</t>
   </si>
   <si>
-    <t>52,83%</t>
+    <t>51,28%</t>
   </si>
   <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>20,74%</t>
+    <t>20,0%</t>
   </si>
   <si>
     <t>83,87%</t>
   </si>
   <si>
-    <t>51,03%</t>
+    <t>51,47%</t>
   </si>
   <si>
     <t>83,01%</t>
   </si>
   <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>79,26%</t>
+    <t>80,0%</t>
   </si>
   <si>
     <t>16,13%</t>
   </si>
   <si>
-    <t>48,97%</t>
+    <t>48,53%</t>
   </si>
   <si>
     <t>16,99%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
   </si>
   <si>
     <t>61,79%</t>
   </si>
   <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>65,95%</t>
@@ -516,19 +522,19 @@
     <t>64,52%</t>
   </si>
   <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>38,21%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
   </si>
   <si>
     <t>34,05%</t>
@@ -543,64 +549,64 @@
     <t>35,48%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>67,56%</t>
   </si>
   <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>32,44%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0012F2A-86B5-46A1-838B-C5E95EBE73C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7708A67C-B527-4F76-8344-4E0824406CDD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1580,7 +1586,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -1592,13 +1598,13 @@
         <v>10613</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1607,13 +1613,13 @@
         <v>13835</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1628,13 +1634,13 @@
         <v>2048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1643,13 +1649,13 @@
         <v>9223</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -1658,13 +1664,13 @@
         <v>11270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,7 +1726,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1732,13 +1738,13 @@
         <v>4274</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -1747,13 +1753,13 @@
         <v>11687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -1762,13 +1768,13 @@
         <v>15961</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1783,13 +1789,13 @@
         <v>2960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1798,13 +1804,13 @@
         <v>8318</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -1813,13 +1819,13 @@
         <v>11278</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,7 +1881,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1887,13 +1893,13 @@
         <v>14569</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -1902,13 +1908,13 @@
         <v>11375</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -1917,13 +1923,13 @@
         <v>25944</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,13 +1944,13 @@
         <v>4061</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -1953,13 +1959,13 @@
         <v>10161</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -1968,13 +1974,13 @@
         <v>14222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,13 +2048,13 @@
         <v>25456</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -2057,13 +2063,13 @@
         <v>38139</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -2072,13 +2078,13 @@
         <v>63594</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,13 +2099,13 @@
         <v>13709</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -2108,13 +2114,13 @@
         <v>33478</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -2123,13 +2129,13 @@
         <v>47188</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,7 +2191,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2207,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C399479A-AB60-44C6-AA11-D6CBCDF62E8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE16AC92-AFFF-408D-AE83-201CB050EE61}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2224,7 +2230,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2484,10 +2490,10 @@
         <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2499,10 +2505,10 @@
         <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,7 +2539,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2548,7 +2554,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -2620,10 +2626,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2632,13 +2638,13 @@
         <v>6051</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2647,13 +2653,13 @@
         <v>6051</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,7 +2677,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>18</v>
@@ -2683,13 +2689,13 @@
         <v>3586</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2698,13 +2704,13 @@
         <v>4602</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,10 +2778,10 @@
         <v>5326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -2787,10 +2793,10 @@
         <v>11123</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -2802,13 +2808,13 @@
         <v>16449</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2829,13 @@
         <v>1037</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2838,13 +2844,13 @@
         <v>2737</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2853,13 +2859,13 @@
         <v>3773</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2921,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2927,10 +2933,10 @@
         <v>4039</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -2942,10 +2948,10 @@
         <v>11185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -2957,13 +2963,13 @@
         <v>15224</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2984,13 @@
         <v>963</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2993,13 +2999,13 @@
         <v>2152</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3008,13 +3014,13 @@
         <v>3115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,7 +3076,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3082,13 +3088,13 @@
         <v>10723</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -3097,13 +3103,13 @@
         <v>21987</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -3112,13 +3118,13 @@
         <v>32710</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3139,13 @@
         <v>6630</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -3148,13 +3154,13 @@
         <v>11354</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -3163,13 +3169,13 @@
         <v>17984</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3243,13 @@
         <v>20087</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -3252,13 +3258,13 @@
         <v>50346</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M22" s="7">
         <v>66</v>
@@ -3267,13 +3273,13 @@
         <v>70434</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3294,13 @@
         <v>9647</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -3303,13 +3309,13 @@
         <v>20804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>28</v>
@@ -3318,13 +3324,13 @@
         <v>30450</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,7 +3386,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A01-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55AB785E-5762-49A3-B2C0-3F14B4F5D511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BCEC371-67DC-4D95-86AB-C484C2232DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{147D054D-914E-437C-AC0C-E8C96E08C4E7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14E77CC2-808C-427A-88B7-1E65238C34A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="186">
   <si>
     <t>Población que recibe medicación o terapia por cáncer en 2012 (Tasa respuesta: 1,54%)</t>
   </si>
@@ -102,49 +102,49 @@
     <t>45,09%</t>
   </si>
   <si>
-    <t>84,4%</t>
+    <t>84,07%</t>
   </si>
   <si>
     <t>43,59%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
   </si>
   <si>
     <t>44,09%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>54,91%</t>
   </si>
   <si>
-    <t>15,6%</t>
+    <t>15,93%</t>
   </si>
   <si>
     <t>56,41%</t>
   </si>
   <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -153,49 +153,49 @@
     <t>61,14%</t>
   </si>
   <si>
-    <t>19,97%</t>
+    <t>19,77%</t>
   </si>
   <si>
     <t>53,51%</t>
   </si>
   <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
   </si>
   <si>
     <t>55,11%</t>
   </si>
   <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
   </si>
   <si>
     <t>38,86%</t>
   </si>
   <si>
-    <t>80,03%</t>
+    <t>80,23%</t>
   </si>
   <si>
     <t>46,49%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
   </si>
   <si>
     <t>44,89%</t>
   </si>
   <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -204,55 +204,55 @@
     <t>59,08%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
   </si>
   <si>
     <t>58,42%</t>
   </si>
   <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
   </si>
   <si>
     <t>58,6%</t>
   </si>
   <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>40,92%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
   </si>
   <si>
     <t>41,58%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
   </si>
   <si>
     <t>41,4%</t>
   </si>
   <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -261,115 +261,115 @@
     <t>78,2%</t>
   </si>
   <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>52,82%</t>
   </si>
   <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
   </si>
   <si>
     <t>64,59%</t>
   </si>
   <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
   </si>
   <si>
     <t>47,18%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
   </si>
   <si>
     <t>35,41%</t>
   </si>
   <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
   </si>
   <si>
     <t>65,0%</t>
   </si>
   <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
   </si>
   <si>
     <t>35,0%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por cáncer en 2015 (Tasa respuesta: 1,43%)</t>
+    <t>Población que recibe medicación o terapia por cáncer en 2016 (Tasa respuesta: 1,43%)</t>
   </si>
   <si>
     <t>0%</t>
@@ -384,229 +384,217 @@
     <t>62,79%</t>
   </si>
   <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>56,8%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
   </si>
   <si>
     <t>37,21%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
   </si>
   <si>
     <t>43,2%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>47,82%</t>
+    <t>31,45%</t>
   </si>
   <si>
     <t>80,26%</t>
   </si>
   <si>
-    <t>48,72%</t>
+    <t>45,94%</t>
   </si>
   <si>
     <t>81,34%</t>
   </si>
   <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>52,18%</t>
+    <t>68,55%</t>
   </si>
   <si>
     <t>19,74%</t>
   </si>
   <si>
-    <t>51,28%</t>
+    <t>54,06%</t>
   </si>
   <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>20,0%</t>
+    <t>21,29%</t>
   </si>
   <si>
     <t>83,87%</t>
   </si>
   <si>
-    <t>51,47%</t>
+    <t>58,85%</t>
   </si>
   <si>
     <t>83,01%</t>
   </si>
   <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>80,0%</t>
+    <t>78,71%</t>
   </si>
   <si>
     <t>16,13%</t>
   </si>
   <si>
-    <t>48,53%</t>
+    <t>41,15%</t>
   </si>
   <si>
     <t>16,99%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
   </si>
   <si>
     <t>61,79%</t>
   </si>
   <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
   </si>
   <si>
     <t>65,95%</t>
   </si>
   <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>64,52%</t>
   </si>
   <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>38,21%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
   </si>
   <si>
     <t>34,05%</t>
   </si>
   <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
   </si>
   <si>
     <t>35,48%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
   </si>
   <si>
     <t>67,56%</t>
   </si>
   <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
+    <t>57,48%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>78,42%</t>
   </si>
   <si>
     <t>32,44%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
+    <t>42,52%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
+    <t>21,58%</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7708A67C-B527-4F76-8344-4E0824406CDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58CA805-8ED7-49BA-8DFA-F3FD70142624}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2213,7 +2201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE16AC92-AFFF-408D-AE83-201CB050EE61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C9C57E-5110-44F4-AE00-966232A0B337}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3264,7 +3252,7 @@
         <v>176</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>66</v>
@@ -3273,13 +3261,13 @@
         <v>70434</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,13 +3282,13 @@
         <v>9647</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -3309,28 +3297,28 @@
         <v>20804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M23" s="7">
         <v>28</v>
       </c>
       <c r="N23" s="7">
-        <v>30450</v>
+        <v>30451</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,7 +3360,7 @@
         <v>94</v>
       </c>
       <c r="N24" s="7">
-        <v>100884</v>
+        <v>100885</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>18</v>
